--- a/public/import/importFeeDetail.xlsx
+++ b/public/import/importFeeDetail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\vip\MicroCommunityWeb\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0282638-BEA0-45C6-9980-7C418E2CC7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3F34B8-9FB8-4FFF-A15D-7129052F8C9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="房屋缴费历史" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>单元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>元为单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -437,10 +441,11 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="54.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -463,13 +468,16 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -491,11 +499,14 @@
       <c r="G2" s="1">
         <v>42736</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
+        <v>42736</v>
+      </c>
+      <c r="I2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -517,14 +528,17 @@
       <c r="G3" s="1">
         <v>43101</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
+        <v>42736</v>
+      </c>
+      <c r="I3">
         <v>1000</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -546,77 +560,80 @@
       <c r="G4" s="1">
         <v>43466</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
+        <v>42736</v>
+      </c>
+      <c r="I4">
         <v>1000</v>
       </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
       <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
         <v>2</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K7" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
         <v>9</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
         <v>4</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K9" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
         <v>5</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
         <v>6</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
         <v>7</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K12" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
         <v>8</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
